--- a/BA.xlsx
+++ b/BA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD85A7C-5848-476A-895B-87F8AFFF5DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EFA82B-B959-48E5-AAD2-D34337ECD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29655" yWindow="600" windowWidth="28860" windowHeight="19020" activeTab="1" xr2:uid="{A8769FE9-8936-45FE-8C8F-FF0088B6B291}"/>
+    <workbookView xWindow="45400" yWindow="3460" windowWidth="23420" windowHeight="16250" activeTab="1" xr2:uid="{A8769FE9-8936-45FE-8C8F-FF0088B6B291}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>FCF</t>
   </si>
   <si>
-    <t>Q423</t>
-  </si>
-  <si>
     <t>Airplane Backlog</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -368,14 +368,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,7 +718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6EC346-F442-4880-B242-81D4576BECC4}">
   <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -731,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -742,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>610.13520500000004</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>89</v>
+        <v>754</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -757,7 +758,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>106773.660875</v>
+        <v>147784</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -768,11 +769,11 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>+Model!P44</f>
-        <v>17000</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>89</v>
+        <f>10142+13532</f>
+        <v>23674</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -783,11 +784,11 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <f>Model!P56</f>
-        <v>52307</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>89</v>
+        <f>45688+7930</f>
+        <v>53618</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -799,7 +800,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>142080.660875</v>
+        <v>177728</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -943,13 +944,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7AE248-2A35-4A91-96EB-FA61F6AC61D7}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -959,12 +960,12 @@
     <col min="3" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>2010</v>
       </c>
@@ -1007,10 +1008,28 @@
       <c r="P2">
         <v>2023</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>2024</v>
+      </c>
+      <c r="R2">
+        <v>2025</v>
+      </c>
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="T2">
+        <f>+S2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="U2">
+        <f>+T2+1</f>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2">
         <v>410986</v>
@@ -1032,9 +1051,9 @@
         <v>440507</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2">
         <v>44049</v>
@@ -1056,9 +1075,9 @@
         <v>59012</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2">
         <v>19605</v>
@@ -1079,11 +1098,11 @@
         <v>19869</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -1165,7 +1184,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -1206,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -1247,7 +1266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -1288,7 +1307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -1329,7 +1348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -1381,7 +1400,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1397,7 +1416,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -1479,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -1551,7 +1570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -1599,7 +1618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>54</v>
       </c>
@@ -1611,7 +1630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>56</v>
       </c>
@@ -1631,7 +1650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -1699,21 +1718,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="6">
+      <c r="D25" s="2">
         <v>36171</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
         <v>49127</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="2">
         <v>52981</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="2">
         <v>59990</v>
       </c>
       <c r="H25" s="2">
@@ -1744,7 +1763,7 @@
         <v>33901</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1794,21 +1813,21 @@
         <v>24933</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="6">
+      <c r="D27" s="2">
         <v>8912</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="2">
         <v>9323</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="2">
         <v>9410</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="2">
         <v>9378</v>
       </c>
       <c r="H27" s="2">
@@ -1839,7 +1858,7 @@
         <v>19127</v>
       </c>
     </row>
-    <row r="28" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1888,8 +1907,26 @@
       <c r="P28" s="4">
         <v>77794</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="4">
+        <v>66517</v>
+      </c>
+      <c r="R28" s="4">
+        <v>77794</v>
+      </c>
+      <c r="S28" s="4">
+        <f>+R28*1.1</f>
+        <v>85573.400000000009</v>
+      </c>
+      <c r="T28" s="4">
+        <f>+S28*1.1</f>
+        <v>94130.74000000002</v>
+      </c>
+      <c r="U28" s="4">
+        <f>+T28*1.1</f>
+        <v>103543.81400000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -1929,8 +1966,26 @@
       <c r="P29" s="2">
         <v>70070</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="2">
+        <v>68508</v>
+      </c>
+      <c r="R29" s="2">
+        <v>70070</v>
+      </c>
+      <c r="S29" s="2">
+        <f>+S28*0.88</f>
+        <v>75304.592000000004</v>
+      </c>
+      <c r="T29" s="2">
+        <f>+T28*0.85</f>
+        <v>80011.129000000015</v>
+      </c>
+      <c r="U29" s="2">
+        <f>+U28*0.8</f>
+        <v>82835.051200000031</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -1938,51 +1993,71 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
-        <f>+F28-F29</f>
+        <f t="shared" ref="F30:P30" si="2">+F28-F29</f>
         <v>13355</v>
       </c>
       <c r="G30" s="2">
-        <f>+G28-G29</f>
+        <f t="shared" si="2"/>
         <v>14010</v>
       </c>
       <c r="H30" s="2">
-        <f>+H28-H29</f>
+        <f t="shared" si="2"/>
         <v>14026</v>
       </c>
       <c r="I30" s="2">
-        <f>+I28-I29</f>
+        <f t="shared" si="2"/>
         <v>14351</v>
       </c>
       <c r="J30" s="2">
-        <f>+J28-J29</f>
+        <f t="shared" si="2"/>
         <v>16544</v>
       </c>
       <c r="K30" s="2">
-        <f>+K28-K29</f>
+        <f t="shared" si="2"/>
         <v>19438</v>
       </c>
       <c r="L30" s="2">
-        <f>+L28-L29</f>
+        <f t="shared" si="2"/>
         <v>13941</v>
       </c>
       <c r="M30" s="2">
-        <f>+M28-M29</f>
+        <f t="shared" si="2"/>
         <v>3394</v>
       </c>
       <c r="N30" s="2">
-        <f>+N28-N29</f>
+        <f t="shared" si="2"/>
         <v>3049</v>
       </c>
       <c r="O30" s="2">
-        <f>+O28-O29</f>
+        <f t="shared" si="2"/>
         <v>3530</v>
       </c>
       <c r="P30" s="2">
-        <f>+P28-P29</f>
+        <f t="shared" si="2"/>
         <v>7724</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="2">
+        <f t="shared" ref="Q30:U30" si="3">+Q28-Q29</f>
+        <v>-1991</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="3"/>
+        <v>7724</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="3"/>
+        <v>10268.808000000005</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="3"/>
+        <v>14119.611000000004</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="3"/>
+        <v>20708.762799999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>63</v>
       </c>
@@ -2022,8 +2097,27 @@
       <c r="P31" s="2">
         <v>5168</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="2">
+        <v>5021</v>
+      </c>
+      <c r="R31" s="2">
+        <f>+Q31*0.9</f>
+        <v>4518.9000000000005</v>
+      </c>
+      <c r="S31" s="2">
+        <f>+R31*0.9</f>
+        <v>4067.0100000000007</v>
+      </c>
+      <c r="T31" s="2">
+        <f>+S31*0.9</f>
+        <v>3660.3090000000007</v>
+      </c>
+      <c r="U31" s="2">
+        <f>+T31*0.9</f>
+        <v>3294.2781000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>64</v>
       </c>
@@ -2063,50 +2157,69 @@
       <c r="P32" s="2">
         <v>3377</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="2">
+        <v>3812</v>
+      </c>
+      <c r="R32" s="2">
+        <f>+Q32*0.9</f>
+        <v>3430.8</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" ref="S32:U32" si="4">+R32*0.9</f>
+        <v>3087.7200000000003</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="4"/>
+        <v>2778.9480000000003</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="4"/>
+        <v>2501.0532000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:L33" si="2">SUM(D31:D32)</f>
+        <f t="shared" ref="D33:L33" si="5">SUM(D31:D32)</f>
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7027</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6814</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6856</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8239</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7274</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7836</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7128</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" ref="M33" si="3">SUM(M31:M32)</f>
+        <f t="shared" ref="M33" si="6">SUM(M31:M32)</f>
         <v>7293</v>
       </c>
       <c r="N33" s="2">
@@ -2114,57 +2227,77 @@
         <v>6406</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" ref="O33:P33" si="4">SUM(O31:O32)</f>
+        <f t="shared" ref="O33:P33" si="7">SUM(O31:O32)</f>
         <v>7039</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8545</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="2">
+        <f t="shared" ref="Q33:U33" si="8">SUM(Q31:Q32)</f>
+        <v>8833</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="8"/>
+        <v>7949.7000000000007</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="8"/>
+        <v>7154.7300000000014</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="8"/>
+        <v>6439.2570000000014</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="8"/>
+        <v>5795.3313000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:L34" si="5">+D30-D33</f>
+        <f t="shared" ref="D34:L34" si="9">+D30-D33</f>
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6328</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7196</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7170</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6112</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9270</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11602</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6813</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" ref="M34" si="6">+M30-M33</f>
+        <f t="shared" ref="M34" si="10">+M30-M33</f>
         <v>-3899</v>
       </c>
       <c r="N34" s="2">
@@ -2172,15 +2305,35 @@
         <v>-3357</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:P34" si="7">+O30-O33</f>
+        <f t="shared" ref="O34:P34" si="11">+O30-O33</f>
         <v>-3509</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-821</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q34" s="2">
+        <f t="shared" ref="Q34:U34" si="12">+Q30-Q33</f>
+        <v>-10824</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="12"/>
+        <v>-225.70000000000073</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="12"/>
+        <v>3114.0780000000032</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" si="12"/>
+        <v>7680.354000000003</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="12"/>
+        <v>14913.431499999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>68</v>
       </c>
@@ -2231,66 +2384,106 @@
         <f>1227-2459</f>
         <v>-1232</v>
       </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="2">
+        <f>1222-2725</f>
+        <v>-1503</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" ref="Q35:U35" si="13">1227-2459</f>
+        <v>-1232</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="13"/>
+        <v>-1232</v>
+      </c>
+      <c r="T35" s="2">
+        <f t="shared" si="13"/>
+        <v>-1232</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="13"/>
+        <v>-1232</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <f>+D34+D35</f>
+        <f t="shared" ref="D36:P36" si="14">+D34+D35</f>
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <f>+E34+E35</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <f>+F34+F35</f>
+        <f t="shared" si="14"/>
         <v>5998</v>
       </c>
       <c r="G36" s="2">
-        <f>+G34+G35</f>
+        <f t="shared" si="14"/>
         <v>6860</v>
       </c>
       <c r="H36" s="2">
-        <f>+H34+H35</f>
+        <f t="shared" si="14"/>
         <v>6882</v>
       </c>
       <c r="I36" s="2">
-        <f>+I34+I35</f>
+        <f t="shared" si="14"/>
         <v>5368</v>
       </c>
       <c r="J36" s="2">
-        <f>+J34+J35</f>
+        <f t="shared" si="14"/>
         <v>9033</v>
       </c>
       <c r="K36" s="2">
-        <f>+K34+K35</f>
+        <f t="shared" si="14"/>
         <v>11219</v>
       </c>
       <c r="L36" s="2">
-        <f>+L34+L35</f>
+        <f t="shared" si="14"/>
         <v>6529</v>
       </c>
       <c r="M36" s="2">
-        <f>+M34+M35</f>
+        <f t="shared" si="14"/>
         <v>-5608</v>
       </c>
       <c r="N36" s="2">
-        <f>+N34+N35</f>
+        <f t="shared" si="14"/>
         <v>-5520</v>
       </c>
       <c r="O36" s="2">
-        <f>+O34+O35</f>
+        <f t="shared" si="14"/>
         <v>-5012</v>
       </c>
       <c r="P36" s="2">
-        <f>+P34+P35</f>
+        <f t="shared" si="14"/>
         <v>-2053</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q36" s="2">
+        <f t="shared" ref="Q36:U36" si="15">+Q34+Q35</f>
+        <v>-12327</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="15"/>
+        <v>-1457.7000000000007</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="15"/>
+        <v>1882.0780000000032</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="15"/>
+        <v>6448.354000000003</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="15"/>
+        <v>13681.431499999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>70</v>
       </c>
@@ -2330,66 +2523,101 @@
       <c r="P37" s="2">
         <v>-237</v>
       </c>
-    </row>
-    <row r="38" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="2">
+        <v>381</v>
+      </c>
+      <c r="R37" s="2">
+        <v>-237</v>
+      </c>
+      <c r="S37" s="2">
+        <v>-237</v>
+      </c>
+      <c r="T37" s="2">
+        <v>-237</v>
+      </c>
+      <c r="U37" s="2">
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4">
-        <f>+D36-D37</f>
+        <f t="shared" ref="D38:K38" si="16">+D36-D37</f>
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <f>+E36-E37</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <f>+F36-F37</f>
+        <f t="shared" si="16"/>
         <v>4352</v>
       </c>
       <c r="G38" s="4">
-        <f>+G36-G37</f>
+        <f t="shared" si="16"/>
         <v>5169</v>
       </c>
       <c r="H38" s="4">
-        <f>+H36-H37</f>
+        <f t="shared" si="16"/>
         <v>4903</v>
       </c>
       <c r="I38" s="4">
-        <f>+I36-I37</f>
+        <f t="shared" si="16"/>
         <v>4619</v>
       </c>
       <c r="J38" s="4">
-        <f>+J36-J37</f>
+        <f t="shared" si="16"/>
         <v>7384</v>
       </c>
       <c r="K38" s="4">
-        <f>+K36-K37</f>
+        <f t="shared" si="16"/>
         <v>10075</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" ref="L38:P38" si="8">+L36-L37</f>
+        <f t="shared" ref="L38:P38" si="17">+L36-L37</f>
         <v>4906</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-8143</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-6263</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-4981</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-1816</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q38" s="4">
+        <f t="shared" ref="Q38:U38" si="18">+Q36-Q37</f>
+        <v>-12708</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="18"/>
+        <v>-1220.7000000000007</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="18"/>
+        <v>2119.0780000000032</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="18"/>
+        <v>6685.354000000003</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="18"/>
+        <v>13918.431499999995</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2405,121 +2633,160 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="8">
-        <f t="shared" ref="E40:M40" si="9">+E28/D28-1</f>
+      <c r="E40" s="7">
+        <f t="shared" ref="E40:L40" si="19">+E28/D28-1</f>
         <v>0.18859387502727865</v>
       </c>
-      <c r="F40" s="8">
-        <f t="shared" si="9"/>
+      <c r="F40" s="7">
+        <f t="shared" si="19"/>
         <v>6.0282993463732337E-2</v>
       </c>
-      <c r="G40" s="8">
-        <f t="shared" si="9"/>
+      <c r="G40" s="7">
+        <f t="shared" si="19"/>
         <v>4.778176696720271E-2</v>
       </c>
-      <c r="H40" s="8">
-        <f t="shared" si="9"/>
+      <c r="H40" s="7">
+        <f t="shared" si="19"/>
         <v>5.8967409268195992E-2</v>
       </c>
-      <c r="I40" s="8">
-        <f t="shared" si="9"/>
+      <c r="I40" s="7">
+        <f t="shared" si="19"/>
         <v>-2.8476600703331467E-2</v>
       </c>
-      <c r="J40" s="8">
-        <f t="shared" si="9"/>
+      <c r="J40" s="7">
+        <f t="shared" si="19"/>
         <v>-2.3667498420382183E-3</v>
       </c>
-      <c r="K40" s="8">
-        <f t="shared" si="9"/>
+      <c r="K40" s="7">
+        <f t="shared" si="19"/>
         <v>8.3429945467817346E-2</v>
       </c>
-      <c r="L40" s="8">
-        <f t="shared" si="9"/>
+      <c r="L40" s="7">
+        <f t="shared" si="19"/>
         <v>-0.23888316423589095</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <f>+M28/L28-1</f>
         <v>-0.2454633028717228</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="7">
         <f>+N28/M28-1</f>
         <v>7.4600600393361249E-2</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="7">
         <f>+O28/N28-1</f>
         <v>6.9389589956009301E-2</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="7">
         <f>+P28/O28-1</f>
         <v>0.16793778525102088</v>
       </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q40" s="7">
+        <f>+Q28/P28-1</f>
+        <v>-0.14495976553461709</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" ref="R40:U40" si="20">+R28/Q28-1</f>
+        <v>0.16953560743869978</v>
+      </c>
+      <c r="S40" s="7">
+        <f t="shared" si="20"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="20"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U40" s="7">
+        <f t="shared" si="20"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8">
-        <f t="shared" ref="C41:K41" si="10">+D30/D28</f>
+        <v>92</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7">
+        <f t="shared" ref="D41:J41" si="21">+D30/D28</f>
         <v>0</v>
       </c>
-      <c r="E41" s="8">
-        <f t="shared" si="10"/>
+      <c r="E41" s="7">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F41" s="8">
-        <f t="shared" si="10"/>
+      <c r="F41" s="7">
+        <f t="shared" si="21"/>
         <v>0.15417383373930713</v>
       </c>
-      <c r="G41" s="8">
-        <f t="shared" si="10"/>
+      <c r="G41" s="7">
+        <f t="shared" si="21"/>
         <v>0.15435975408210484</v>
       </c>
-      <c r="H41" s="8">
-        <f t="shared" si="10"/>
+      <c r="H41" s="7">
+        <f t="shared" si="21"/>
         <v>0.1459308737540837</v>
       </c>
-      <c r="I41" s="8">
-        <f t="shared" si="10"/>
+      <c r="I41" s="7">
+        <f t="shared" si="21"/>
         <v>0.15368880987823555</v>
       </c>
-      <c r="J41" s="8">
-        <f t="shared" si="10"/>
+      <c r="J41" s="7">
+        <f t="shared" si="21"/>
         <v>0.17759457254497832</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="7">
         <f>+K30/K28</f>
         <v>0.19259273937856691</v>
       </c>
-      <c r="L41" s="8">
-        <f t="shared" ref="L41:P41" si="11">+L30/L28</f>
+      <c r="L41" s="7">
+        <f t="shared" ref="L41:Q41" si="22">+L30/L28</f>
         <v>0.18148090291337968</v>
       </c>
-      <c r="M41" s="8">
-        <f t="shared" si="11"/>
+      <c r="M41" s="7">
+        <f t="shared" si="22"/>
         <v>5.8555605396639177E-2</v>
       </c>
-      <c r="N41" s="8">
-        <f t="shared" si="11"/>
+      <c r="N41" s="7">
+        <f t="shared" si="22"/>
         <v>4.8951610313714158E-2</v>
       </c>
-      <c r="O41" s="8">
-        <f t="shared" si="11"/>
+      <c r="O41" s="7">
+        <f t="shared" si="22"/>
         <v>5.2996637040595727E-2</v>
       </c>
-      <c r="P41" s="8">
-        <f t="shared" si="11"/>
+      <c r="P41" s="7">
+        <f t="shared" si="22"/>
         <v>9.9287862817183839E-2</v>
       </c>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="7">
+        <f t="shared" si="22"/>
+        <v>-2.9932197784025137E-2</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" ref="R41:U41" si="23">+R30/R28</f>
+        <v>9.9287862817183839E-2</v>
+      </c>
+      <c r="S41" s="7">
+        <f t="shared" si="23"/>
+        <v>0.12000000000000004</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="23"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" si="23"/>
+        <v>0.19999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2535,7 +2802,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2551,7 +2818,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +2840,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>72</v>
       </c>
@@ -2595,7 +2862,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>73</v>
       </c>
@@ -2609,14 +2876,14 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="6"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
+      <c r="P46" s="2">
         <v>79741</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>74</v>
       </c>
@@ -2637,7 +2904,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>75</v>
       </c>
@@ -3018,47 +3285,47 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4">
-        <f>+F62+F63</f>
+        <f t="shared" ref="F64:P64" si="24">+F62+F63</f>
         <v>6081</v>
       </c>
       <c r="G64" s="4">
-        <f>+G62+G63</f>
+        <f t="shared" si="24"/>
         <v>6622</v>
       </c>
       <c r="H64" s="4">
-        <f>+H62+H63</f>
+        <f t="shared" si="24"/>
         <v>6913</v>
       </c>
       <c r="I64" s="4">
-        <f>+I62+I63</f>
+        <f t="shared" si="24"/>
         <v>7883</v>
       </c>
       <c r="J64" s="4">
-        <f>+J62+J63</f>
+        <f t="shared" si="24"/>
         <v>11607</v>
       </c>
       <c r="K64" s="4">
-        <f>+K62+K63</f>
+        <f t="shared" si="24"/>
         <v>13600</v>
       </c>
       <c r="L64" s="4">
-        <f>+L62+L63</f>
+        <f t="shared" si="24"/>
         <v>-4280</v>
       </c>
       <c r="M64" s="4">
-        <f>+M62+M63</f>
+        <f t="shared" si="24"/>
         <v>-19713</v>
       </c>
       <c r="N64" s="4">
-        <f>+N62+N63</f>
+        <f t="shared" si="24"/>
         <v>-4396</v>
       </c>
       <c r="O64" s="4">
-        <f>+O62+O63</f>
+        <f t="shared" si="24"/>
         <v>2290</v>
       </c>
       <c r="P64" s="4">
-        <f>+P62+P63</f>
+        <f t="shared" si="24"/>
         <v>4433</v>
       </c>
     </row>
